--- a/out/CE/falselink/Figori_algorithm_11.xlsx
+++ b/out/CE/falselink/Figori_algorithm_11.xlsx
@@ -392,455 +392,455 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.88239999999999996</v>
+        <v>0.86609999999999998</v>
       </c>
       <c r="B1">
+        <v>0.84789999999999999</v>
+      </c>
+      <c r="C1">
+        <v>0.86294999999999999</v>
+      </c>
+      <c r="D1">
+        <v>0.8629</v>
+      </c>
+      <c r="E1">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="F1">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="G1">
+        <v>0.87229999999999996</v>
+      </c>
+      <c r="H1">
+        <v>0.86855000000000004</v>
+      </c>
+      <c r="I1">
+        <v>0.86614999999999998</v>
+      </c>
+      <c r="J1">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="K1">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="L1">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="M1">
+        <v>0.83550000000000002</v>
+      </c>
+      <c r="N1">
+        <v>0.86885000000000001</v>
+      </c>
+      <c r="O1">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="P1">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="Q1">
+        <v>0.85155000000000003</v>
+      </c>
+      <c r="R1">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="S1">
+        <v>0.8569</v>
+      </c>
+      <c r="T1">
+        <v>0.87204999999999999</v>
+      </c>
+      <c r="U1">
+        <v>0.85850000000000004</v>
+      </c>
+      <c r="V1">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="W1">
+        <v>0.87419999999999998</v>
+      </c>
+      <c r="X1">
+        <v>0.84689999999999999</v>
+      </c>
+      <c r="Y1">
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="Z1">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="AA1">
+        <v>0.8327</v>
+      </c>
+      <c r="AB1">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="AC1">
         <v>0.86450000000000005</v>
       </c>
-      <c r="C1">
-        <v>0.87014999999999998</v>
-      </c>
-      <c r="D1">
-        <v>0.85860000000000003</v>
-      </c>
-      <c r="E1">
-        <v>0.87724999999999997</v>
-      </c>
-      <c r="F1">
-        <v>0.84855000000000003</v>
-      </c>
-      <c r="G1">
-        <v>0.82765</v>
-      </c>
-      <c r="H1">
-        <v>0.8841</v>
-      </c>
-      <c r="I1">
-        <v>0.86404999999999998</v>
-      </c>
-      <c r="J1">
-        <v>0.87470000000000003</v>
-      </c>
-      <c r="K1">
-        <v>0.86890000000000001</v>
-      </c>
-      <c r="L1">
-        <v>0.88114999999999999</v>
-      </c>
-      <c r="M1">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="N1">
-        <v>0.86319999999999997</v>
-      </c>
-      <c r="O1">
-        <v>0.88324999999999998</v>
-      </c>
-      <c r="P1">
-        <v>0.85975000000000001</v>
-      </c>
-      <c r="Q1">
-        <v>0.83919999999999995</v>
-      </c>
-      <c r="R1">
-        <v>0.86880000000000002</v>
-      </c>
-      <c r="S1">
-        <v>0.87980000000000003</v>
-      </c>
-      <c r="T1">
-        <v>0.85550000000000004</v>
-      </c>
-      <c r="U1">
-        <v>0.85350000000000004</v>
-      </c>
-      <c r="V1">
-        <v>0.87214999999999998</v>
-      </c>
-      <c r="W1">
-        <v>0.84904999999999997</v>
-      </c>
-      <c r="X1">
-        <v>0.84830000000000005</v>
-      </c>
-      <c r="Y1">
-        <v>0.86370000000000002</v>
-      </c>
-      <c r="Z1">
-        <v>0.86470000000000002</v>
-      </c>
-      <c r="AA1">
-        <v>0.84560000000000002</v>
-      </c>
-      <c r="AB1">
-        <v>0.84524999999999995</v>
-      </c>
-      <c r="AC1">
-        <v>0.88195000000000001</v>
-      </c>
       <c r="AD1">
-        <v>0.83125000000000004</v>
+        <v>0.84589999999999999</v>
       </c>
       <c r="AE1">
-        <v>0.83289999999999997</v>
+        <v>0.85694999999999999</v>
       </c>
       <c r="AF1">
-        <v>0.87444999999999995</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AG1">
-        <v>0.8679</v>
+        <v>0.87204999999999999</v>
       </c>
       <c r="AH1">
-        <v>0.88885000000000003</v>
+        <v>0.84645000000000004</v>
       </c>
       <c r="AI1">
-        <v>0.87605</v>
+        <v>0.86904999999999999</v>
       </c>
       <c r="AJ1">
-        <v>0.86795</v>
+        <v>0.85665000000000002</v>
       </c>
       <c r="AK1">
-        <v>0.86270000000000002</v>
+        <v>0.84730000000000005</v>
       </c>
       <c r="AL1">
-        <v>0.8367</v>
+        <v>0.85609999999999997</v>
       </c>
       <c r="AM1">
-        <v>0.87560000000000004</v>
+        <v>0.88849999999999996</v>
       </c>
       <c r="AN1">
-        <v>0.87275000000000003</v>
+        <v>0.87009999999999998</v>
       </c>
       <c r="AO1">
-        <v>0.87849999999999995</v>
+        <v>0.88924999999999998</v>
       </c>
       <c r="AP1">
-        <v>0.85909999999999997</v>
+        <v>0.86824999999999997</v>
       </c>
       <c r="AQ1">
-        <v>0.88680000000000003</v>
+        <v>0.88380000000000003</v>
       </c>
       <c r="AR1">
-        <v>0.86214999999999997</v>
+        <v>0.86075000000000002</v>
       </c>
       <c r="AS1">
-        <v>0.86875000000000002</v>
+        <v>0.88339999999999996</v>
       </c>
       <c r="AT1">
-        <v>0.86309999999999998</v>
+        <v>0.86629999999999996</v>
       </c>
       <c r="AU1">
-        <v>0.88300000000000001</v>
+        <v>0.85945000000000005</v>
       </c>
       <c r="AV1">
-        <v>0.877</v>
+        <v>0.88019999999999998</v>
       </c>
       <c r="AW1">
-        <v>0.87939999999999996</v>
+        <v>0.85680000000000001</v>
       </c>
       <c r="AX1">
-        <v>0.85694999999999999</v>
+        <v>0.86570000000000003</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.86775000000000002</v>
+        <v>0.84430000000000005</v>
       </c>
       <c r="B2">
-        <v>0.84375</v>
+        <v>0.84245000000000003</v>
       </c>
       <c r="C2">
-        <v>0.86170000000000002</v>
+        <v>0.85680000000000001</v>
       </c>
       <c r="D2">
-        <v>0.83794999999999997</v>
+        <v>0.84704999999999997</v>
       </c>
       <c r="E2">
+        <v>0.81540000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="G2">
+        <v>0.85594999999999999</v>
+      </c>
+      <c r="H2">
         <v>0.86024999999999996</v>
       </c>
-      <c r="F2">
-        <v>0.83535000000000004</v>
-      </c>
-      <c r="G2">
-        <v>0.81235000000000002</v>
-      </c>
-      <c r="H2">
-        <v>0.87104999999999999</v>
-      </c>
       <c r="I2">
-        <v>0.85014999999999996</v>
+        <v>0.86114999999999997</v>
       </c>
       <c r="J2">
-        <v>0.86819999999999997</v>
+        <v>0.86240000000000006</v>
       </c>
       <c r="K2">
-        <v>0.85824999999999996</v>
+        <v>0.84640000000000004</v>
       </c>
       <c r="L2">
-        <v>0.87024999999999997</v>
+        <v>0.85580000000000001</v>
       </c>
       <c r="M2">
-        <v>0.85909999999999997</v>
+        <v>0.82869999999999999</v>
       </c>
       <c r="N2">
-        <v>0.84260000000000002</v>
+        <v>0.85560000000000003</v>
       </c>
       <c r="O2">
-        <v>0.87455000000000005</v>
+        <v>0.86104999999999998</v>
       </c>
       <c r="P2">
-        <v>0.83774999999999999</v>
+        <v>0.87990000000000002</v>
       </c>
       <c r="Q2">
-        <v>0.83594999999999997</v>
+        <v>0.83314999999999995</v>
       </c>
       <c r="R2">
-        <v>0.85424999999999995</v>
+        <v>0.86445000000000005</v>
       </c>
       <c r="S2">
-        <v>0.85960000000000003</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="T2">
-        <v>0.84655000000000002</v>
+        <v>0.85955000000000004</v>
       </c>
       <c r="U2">
-        <v>0.85540000000000005</v>
+        <v>0.86450000000000005</v>
       </c>
       <c r="V2">
-        <v>0.86550000000000005</v>
+        <v>0.86480000000000001</v>
       </c>
       <c r="W2">
-        <v>0.8407</v>
+        <v>0.85745000000000005</v>
       </c>
       <c r="X2">
-        <v>0.83830000000000005</v>
+        <v>0.84570000000000001</v>
       </c>
       <c r="Y2">
-        <v>0.84160000000000001</v>
+        <v>0.84089999999999998</v>
       </c>
       <c r="Z2">
-        <v>0.85170000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="AA2">
-        <v>0.83309999999999995</v>
+        <v>0.83204999999999996</v>
       </c>
       <c r="AB2">
-        <v>0.83455000000000001</v>
+        <v>0.84394999999999998</v>
       </c>
       <c r="AC2">
-        <v>0.86875000000000002</v>
+        <v>0.84570000000000001</v>
       </c>
       <c r="AD2">
-        <v>0.80095000000000005</v>
+        <v>0.82884999999999998</v>
       </c>
       <c r="AE2">
-        <v>0.81369999999999998</v>
+        <v>0.84279999999999999</v>
       </c>
       <c r="AF2">
-        <v>0.86429999999999996</v>
+        <v>0.84465000000000001</v>
       </c>
       <c r="AG2">
-        <v>0.85335000000000005</v>
+        <v>0.85245000000000004</v>
       </c>
       <c r="AH2">
-        <v>0.87709999999999999</v>
+        <v>0.83689999999999998</v>
       </c>
       <c r="AI2">
-        <v>0.86399999999999999</v>
+        <v>0.86060000000000003</v>
       </c>
       <c r="AJ2">
-        <v>0.85950000000000004</v>
+        <v>0.83684999999999998</v>
       </c>
       <c r="AK2">
-        <v>0.85145000000000004</v>
+        <v>0.83850000000000002</v>
       </c>
       <c r="AL2">
-        <v>0.82220000000000004</v>
+        <v>0.83394999999999997</v>
       </c>
       <c r="AM2">
-        <v>0.85655000000000003</v>
+        <v>0.87844999999999995</v>
       </c>
       <c r="AN2">
-        <v>0.85304999999999997</v>
+        <v>0.87649999999999995</v>
       </c>
       <c r="AO2">
-        <v>0.86209999999999998</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="AP2">
-        <v>0.84594999999999998</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AQ2">
-        <v>0.87544999999999995</v>
+        <v>0.86785000000000001</v>
       </c>
       <c r="AR2">
-        <v>0.86555000000000004</v>
+        <v>0.85089999999999999</v>
       </c>
       <c r="AS2">
-        <v>0.85389999999999999</v>
+        <v>0.87265000000000004</v>
       </c>
       <c r="AT2">
-        <v>0.85794999999999999</v>
+        <v>0.84884999999999999</v>
       </c>
       <c r="AU2">
-        <v>0.84824999999999995</v>
+        <v>0.85285</v>
       </c>
       <c r="AV2">
-        <v>0.86365000000000003</v>
+        <v>0.87409999999999999</v>
       </c>
       <c r="AW2">
-        <v>0.86334999999999995</v>
+        <v>0.83884999999999998</v>
       </c>
       <c r="AX2">
-        <v>0.84265000000000001</v>
+        <v>0.85255000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.84740000000000004</v>
+        <v>0.80735000000000001</v>
       </c>
       <c r="B3">
-        <v>0.81245000000000001</v>
+        <v>0.80310000000000004</v>
       </c>
       <c r="C3">
-        <v>0.83679999999999999</v>
+        <v>0.8236</v>
       </c>
       <c r="D3">
-        <v>0.80945</v>
+        <v>0.82694999999999996</v>
       </c>
       <c r="E3">
-        <v>0.84</v>
+        <v>0.79010000000000002</v>
       </c>
       <c r="F3">
-        <v>0.80210000000000004</v>
+        <v>0.85429999999999995</v>
       </c>
       <c r="G3">
-        <v>0.79635</v>
+        <v>0.8276</v>
       </c>
       <c r="H3">
-        <v>0.8206</v>
+        <v>0.83850000000000002</v>
       </c>
       <c r="I3">
-        <v>0.83255000000000001</v>
+        <v>0.83389999999999997</v>
       </c>
       <c r="J3">
-        <v>0.85024999999999995</v>
+        <v>0.83355000000000001</v>
       </c>
       <c r="K3">
-        <v>0.84489999999999998</v>
+        <v>0.81359999999999999</v>
       </c>
       <c r="L3">
-        <v>0.84409999999999996</v>
+        <v>0.83169999999999999</v>
       </c>
       <c r="M3">
-        <v>0.83745000000000003</v>
+        <v>0.79664999999999997</v>
       </c>
       <c r="N3">
-        <v>0.81904999999999994</v>
+        <v>0.82820000000000005</v>
       </c>
       <c r="O3">
-        <v>0.86085</v>
+        <v>0.84930000000000005</v>
       </c>
       <c r="P3">
-        <v>0.81879999999999997</v>
+        <v>0.86329999999999996</v>
       </c>
       <c r="Q3">
-        <v>0.81910000000000005</v>
+        <v>0.82440000000000002</v>
       </c>
       <c r="R3">
-        <v>0.84714999999999996</v>
+        <v>0.84670000000000001</v>
       </c>
       <c r="S3">
-        <v>0.84465000000000001</v>
+        <v>0.84565000000000001</v>
       </c>
       <c r="T3">
-        <v>0.80969999999999998</v>
+        <v>0.83404999999999996</v>
       </c>
       <c r="U3">
-        <v>0.83304999999999996</v>
+        <v>0.82915000000000005</v>
       </c>
       <c r="V3">
-        <v>0.82740000000000002</v>
+        <v>0.84709999999999996</v>
       </c>
       <c r="W3">
-        <v>0.81835000000000002</v>
+        <v>0.8347</v>
       </c>
       <c r="X3">
-        <v>0.8276</v>
+        <v>0.83565</v>
       </c>
       <c r="Y3">
-        <v>0.80959999999999999</v>
+        <v>0.81425000000000003</v>
       </c>
       <c r="Z3">
-        <v>0.82815000000000005</v>
+        <v>0.83940000000000003</v>
       </c>
       <c r="AA3">
-        <v>0.80835000000000001</v>
+        <v>0.80974999999999997</v>
       </c>
       <c r="AB3">
-        <v>0.79595000000000005</v>
+        <v>0.83555000000000001</v>
       </c>
       <c r="AC3">
-        <v>0.84314999999999996</v>
+        <v>0.82779999999999998</v>
       </c>
       <c r="AD3">
-        <v>0.79110000000000003</v>
+        <v>0.79049999999999998</v>
       </c>
       <c r="AE3">
-        <v>0.80794999999999995</v>
+        <v>0.82230000000000003</v>
       </c>
       <c r="AF3">
-        <v>0.82969999999999999</v>
+        <v>0.82004999999999995</v>
       </c>
       <c r="AG3">
-        <v>0.82315000000000005</v>
+        <v>0.82630000000000003</v>
       </c>
       <c r="AH3">
-        <v>0.85129999999999995</v>
+        <v>0.82750000000000001</v>
       </c>
       <c r="AI3">
-        <v>0.83045000000000002</v>
+        <v>0.84184999999999999</v>
       </c>
       <c r="AJ3">
-        <v>0.83320000000000005</v>
+        <v>0.81074999999999997</v>
       </c>
       <c r="AK3">
-        <v>0.83814999999999995</v>
+        <v>0.81420000000000003</v>
       </c>
       <c r="AL3">
-        <v>0.80820000000000003</v>
+        <v>0.8337</v>
       </c>
       <c r="AM3">
-        <v>0.83989999999999998</v>
+        <v>0.84914999999999996</v>
       </c>
       <c r="AN3">
-        <v>0.82799999999999996</v>
+        <v>0.85894999999999999</v>
       </c>
       <c r="AO3">
-        <v>0.82874999999999999</v>
+        <v>0.84330000000000005</v>
       </c>
       <c r="AP3">
-        <v>0.81950000000000001</v>
+        <v>0.83145000000000002</v>
       </c>
       <c r="AQ3">
-        <v>0.85104999999999997</v>
+        <v>0.8538</v>
       </c>
       <c r="AR3">
-        <v>0.83725000000000005</v>
+        <v>0.81920000000000004</v>
       </c>
       <c r="AS3">
-        <v>0.82540000000000002</v>
+        <v>0.83025000000000004</v>
       </c>
       <c r="AT3">
-        <v>0.82535000000000003</v>
+        <v>0.80789999999999995</v>
       </c>
       <c r="AU3">
-        <v>0.83730000000000004</v>
+        <v>0.80359999999999998</v>
       </c>
       <c r="AV3">
-        <v>0.83355000000000001</v>
+        <v>0.8508</v>
       </c>
       <c r="AW3">
-        <v>0.83294999999999997</v>
+        <v>0.81484999999999996</v>
       </c>
       <c r="AX3">
         <v>0.81679999999999997</v>
@@ -848,1218 +848,1218 @@
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.82509999999999994</v>
+        <v>0.77939999999999998</v>
       </c>
       <c r="B4">
-        <v>0.77859999999999996</v>
+        <v>0.76880000000000004</v>
       </c>
       <c r="C4">
-        <v>0.80659999999999998</v>
+        <v>0.77175000000000005</v>
       </c>
       <c r="D4">
-        <v>0.78685000000000005</v>
+        <v>0.79039999999999999</v>
       </c>
       <c r="E4">
-        <v>0.80064999999999997</v>
+        <v>0.75004999999999999</v>
       </c>
       <c r="F4">
-        <v>0.77234999999999998</v>
+        <v>0.81305000000000005</v>
       </c>
       <c r="G4">
-        <v>0.77295000000000003</v>
+        <v>0.78820000000000001</v>
       </c>
       <c r="H4">
-        <v>0.76500000000000001</v>
+        <v>0.79120000000000001</v>
       </c>
       <c r="I4">
-        <v>0.7903</v>
+        <v>0.78779999999999994</v>
       </c>
       <c r="J4">
-        <v>0.80049999999999999</v>
+        <v>0.79495000000000005</v>
       </c>
       <c r="K4">
-        <v>0.80110000000000003</v>
+        <v>0.78280000000000005</v>
       </c>
       <c r="L4">
-        <v>0.79315000000000002</v>
+        <v>0.78220000000000001</v>
       </c>
       <c r="M4">
-        <v>0.80500000000000005</v>
+        <v>0.76185000000000003</v>
       </c>
       <c r="N4">
-        <v>0.77744999999999997</v>
+        <v>0.78454999999999997</v>
       </c>
       <c r="O4">
-        <v>0.82169999999999999</v>
+        <v>0.80274999999999996</v>
       </c>
       <c r="P4">
-        <v>0.76180000000000003</v>
+        <v>0.81864999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.80684999999999996</v>
+        <v>0.7833</v>
       </c>
       <c r="R4">
-        <v>0.80164999999999997</v>
+        <v>0.82689999999999997</v>
       </c>
       <c r="S4">
-        <v>0.80889999999999995</v>
+        <v>0.80669999999999997</v>
       </c>
       <c r="T4">
-        <v>0.78574999999999995</v>
+        <v>0.78485000000000005</v>
       </c>
       <c r="U4">
-        <v>0.78935</v>
+        <v>0.80015000000000003</v>
       </c>
       <c r="V4">
-        <v>0.78990000000000005</v>
+        <v>0.79495000000000005</v>
       </c>
       <c r="W4">
-        <v>0.76365000000000005</v>
+        <v>0.80825000000000002</v>
       </c>
       <c r="X4">
-        <v>0.77659999999999996</v>
+        <v>0.79290000000000005</v>
       </c>
       <c r="Y4">
-        <v>0.76800000000000002</v>
+        <v>0.77349999999999997</v>
       </c>
       <c r="Z4">
-        <v>0.79495000000000005</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>0.7661</v>
+        <v>0.77634999999999998</v>
       </c>
       <c r="AB4">
-        <v>0.76534999999999997</v>
+        <v>0.83045000000000002</v>
       </c>
       <c r="AC4">
-        <v>0.80264999999999997</v>
+        <v>0.7964</v>
       </c>
       <c r="AD4">
-        <v>0.76090000000000002</v>
+        <v>0.75365000000000004</v>
       </c>
       <c r="AE4">
-        <v>0.76744999999999997</v>
+        <v>0.79244999999999999</v>
       </c>
       <c r="AF4">
-        <v>0.79910000000000003</v>
+        <v>0.77925</v>
       </c>
       <c r="AG4">
-        <v>0.80545</v>
+        <v>0.77510000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.81789999999999996</v>
+        <v>0.79974999999999996</v>
       </c>
       <c r="AI4">
-        <v>0.78664999999999996</v>
+        <v>0.7883</v>
       </c>
       <c r="AJ4">
-        <v>0.79049999999999998</v>
+        <v>0.75124999999999997</v>
       </c>
       <c r="AK4">
-        <v>0.81810000000000005</v>
+        <v>0.78539999999999999</v>
       </c>
       <c r="AL4">
-        <v>0.78569999999999995</v>
+        <v>0.79979999999999996</v>
       </c>
       <c r="AM4">
-        <v>0.79774999999999996</v>
+        <v>0.82840000000000003</v>
       </c>
       <c r="AN4">
-        <v>0.79369999999999996</v>
+        <v>0.80884999999999996</v>
       </c>
       <c r="AO4">
-        <v>0.79135</v>
+        <v>0.80249999999999999</v>
       </c>
       <c r="AP4">
-        <v>0.78805000000000003</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="AQ4">
-        <v>0.82455000000000001</v>
+        <v>0.81784999999999997</v>
       </c>
       <c r="AR4">
-        <v>0.77815000000000001</v>
+        <v>0.76049999999999995</v>
       </c>
       <c r="AS4">
-        <v>0.77234999999999998</v>
+        <v>0.78039999999999998</v>
       </c>
       <c r="AT4">
-        <v>0.7883</v>
+        <v>0.7591</v>
       </c>
       <c r="AU4">
-        <v>0.78869999999999996</v>
+        <v>0.77185000000000004</v>
       </c>
       <c r="AV4">
-        <v>0.79890000000000005</v>
+        <v>0.82425000000000004</v>
       </c>
       <c r="AW4">
-        <v>0.79735</v>
+        <v>0.7621</v>
       </c>
       <c r="AX4">
-        <v>0.76619999999999999</v>
+        <v>0.78259999999999996</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>0.79139999999999999</v>
+        <v>0.74665000000000004</v>
       </c>
       <c r="B5">
-        <v>0.71479999999999999</v>
+        <v>0.71294999999999997</v>
       </c>
       <c r="C5">
-        <v>0.75290000000000001</v>
+        <v>0.74350000000000005</v>
       </c>
       <c r="D5">
-        <v>0.74250000000000005</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="E5">
-        <v>0.74319999999999997</v>
+        <v>0.69169999999999998</v>
       </c>
       <c r="F5">
-        <v>0.72704999999999997</v>
+        <v>0.75934999999999997</v>
       </c>
       <c r="G5">
-        <v>0.69840000000000002</v>
+        <v>0.73350000000000004</v>
       </c>
       <c r="H5">
-        <v>0.72935000000000005</v>
+        <v>0.75119999999999998</v>
       </c>
       <c r="I5">
-        <v>0.75509999999999999</v>
+        <v>0.73050000000000004</v>
       </c>
       <c r="J5">
-        <v>0.73929999999999996</v>
+        <v>0.749</v>
       </c>
       <c r="K5">
-        <v>0.75849999999999995</v>
+        <v>0.72070000000000001</v>
       </c>
       <c r="L5">
-        <v>0.76519999999999999</v>
+        <v>0.74609999999999999</v>
       </c>
       <c r="M5">
-        <v>0.74750000000000005</v>
+        <v>0.72860000000000003</v>
       </c>
       <c r="N5">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="O5">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="P5">
+        <v>0.75524999999999998</v>
+      </c>
+      <c r="Q5">
+        <v>0.74939999999999996</v>
+      </c>
+      <c r="R5">
+        <v>0.75980000000000003</v>
+      </c>
+      <c r="S5">
+        <v>0.74570000000000003</v>
+      </c>
+      <c r="T5">
+        <v>0.76014999999999999</v>
+      </c>
+      <c r="U5">
+        <v>0.75439999999999996</v>
+      </c>
+      <c r="V5">
+        <v>0.72889999999999999</v>
+      </c>
+      <c r="W5">
+        <v>0.76634999999999998</v>
+      </c>
+      <c r="X5">
+        <v>0.73740000000000006</v>
+      </c>
+      <c r="Y5">
+        <v>0.72140000000000004</v>
+      </c>
+      <c r="Z5">
+        <v>0.751</v>
+      </c>
+      <c r="AA5">
+        <v>0.73150000000000004</v>
+      </c>
+      <c r="AB5">
+        <v>0.76639999999999997</v>
+      </c>
+      <c r="AC5">
+        <v>0.75719999999999998</v>
+      </c>
+      <c r="AD5">
+        <v>0.68135000000000001</v>
+      </c>
+      <c r="AE5">
+        <v>0.73740000000000006</v>
+      </c>
+      <c r="AF5">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="AG5">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="AH5">
+        <v>0.75</v>
+      </c>
+      <c r="AI5">
         <v>0.74209999999999998</v>
       </c>
-      <c r="O5">
-        <v>0.77224999999999999</v>
-      </c>
-      <c r="P5">
-        <v>0.72030000000000005</v>
-      </c>
-      <c r="Q5">
-        <v>0.73419999999999996</v>
-      </c>
-      <c r="R5">
-        <v>0.77339999999999998</v>
-      </c>
-      <c r="S5">
-        <v>0.77090000000000003</v>
-      </c>
-      <c r="T5">
-        <v>0.73045000000000004</v>
-      </c>
-      <c r="U5">
-        <v>0.75890000000000002</v>
-      </c>
-      <c r="V5">
-        <v>0.74960000000000004</v>
-      </c>
-      <c r="W5">
-        <v>0.71919999999999995</v>
-      </c>
-      <c r="X5">
-        <v>0.75419999999999998</v>
-      </c>
-      <c r="Y5">
-        <v>0.72004999999999997</v>
-      </c>
-      <c r="Z5">
-        <v>0.75790000000000002</v>
-      </c>
-      <c r="AA5">
-        <v>0.72955000000000003</v>
-      </c>
-      <c r="AB5">
-        <v>0.73080000000000001</v>
-      </c>
-      <c r="AC5">
-        <v>0.75149999999999995</v>
-      </c>
-      <c r="AD5">
-        <v>0.73694999999999999</v>
-      </c>
-      <c r="AE5">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="AF5">
-        <v>0.75944999999999996</v>
-      </c>
-      <c r="AG5">
-        <v>0.72509999999999997</v>
-      </c>
-      <c r="AH5">
-        <v>0.76470000000000005</v>
-      </c>
-      <c r="AI5">
-        <v>0.75760000000000005</v>
-      </c>
       <c r="AJ5">
-        <v>0.74529999999999996</v>
+        <v>0.71550000000000002</v>
       </c>
       <c r="AK5">
-        <v>0.75360000000000005</v>
+        <v>0.75109999999999999</v>
       </c>
       <c r="AL5">
-        <v>0.72050000000000003</v>
+        <v>0.77185000000000004</v>
       </c>
       <c r="AM5">
-        <v>0.73799999999999999</v>
+        <v>0.77439999999999998</v>
       </c>
       <c r="AN5">
-        <v>0.7651</v>
+        <v>0.74055000000000004</v>
       </c>
       <c r="AO5">
-        <v>0.75419999999999998</v>
+        <v>0.74590000000000001</v>
       </c>
       <c r="AP5">
-        <v>0.74</v>
+        <v>0.74950000000000006</v>
       </c>
       <c r="AQ5">
-        <v>0.77559999999999996</v>
+        <v>0.75260000000000005</v>
       </c>
       <c r="AR5">
-        <v>0.73119999999999996</v>
+        <v>0.72189999999999999</v>
       </c>
       <c r="AS5">
-        <v>0.7268</v>
+        <v>0.754</v>
       </c>
       <c r="AT5">
-        <v>0.73599999999999999</v>
+        <v>0.7349</v>
       </c>
       <c r="AU5">
-        <v>0.73460000000000003</v>
+        <v>0.71550000000000002</v>
       </c>
       <c r="AV5">
-        <v>0.75390000000000001</v>
+        <v>0.77429999999999999</v>
       </c>
       <c r="AW5">
-        <v>0.74260000000000004</v>
+        <v>0.73340000000000005</v>
       </c>
       <c r="AX5">
-        <v>0.73724999999999996</v>
+        <v>0.74280000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.65510000000000002</v>
+        <v>0.63180000000000003</v>
       </c>
       <c r="B6">
-        <v>0.57599999999999996</v>
+        <v>0.59279999999999999</v>
       </c>
       <c r="C6">
-        <v>0.64449999999999996</v>
+        <v>0.67269999999999996</v>
       </c>
       <c r="D6">
-        <v>0.58440000000000003</v>
+        <v>0.6179</v>
       </c>
       <c r="E6">
-        <v>0.61609999999999998</v>
+        <v>0.55289999999999995</v>
       </c>
       <c r="F6">
-        <v>0.60819999999999996</v>
+        <v>0.58560000000000001</v>
       </c>
       <c r="G6">
-        <v>0.56610000000000005</v>
+        <v>0.57789999999999997</v>
       </c>
       <c r="H6">
-        <v>0.60009999999999997</v>
+        <v>0.63895000000000002</v>
       </c>
       <c r="I6">
-        <v>0.63109999999999999</v>
+        <v>0.60950000000000004</v>
       </c>
       <c r="J6">
-        <v>0.59279999999999999</v>
+        <v>0.57520000000000004</v>
       </c>
       <c r="K6">
-        <v>0.62619999999999998</v>
+        <v>0.57699999999999996</v>
       </c>
       <c r="L6">
-        <v>0.63349999999999995</v>
+        <v>0.64580000000000004</v>
       </c>
       <c r="M6">
-        <v>0.59130000000000005</v>
+        <v>0.62549999999999994</v>
       </c>
       <c r="N6">
-        <v>0.57930000000000004</v>
+        <v>0.59450000000000003</v>
       </c>
       <c r="O6">
-        <v>0.69040000000000001</v>
+        <v>0.64470000000000005</v>
       </c>
       <c r="P6">
-        <v>0.57250000000000001</v>
+        <v>0.62180000000000002</v>
       </c>
       <c r="Q6">
-        <v>0.56459999999999999</v>
+        <v>0.58250000000000002</v>
       </c>
       <c r="R6">
-        <v>0.64059999999999995</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="S6">
-        <v>0.65229999999999999</v>
+        <v>0.62770000000000004</v>
       </c>
       <c r="T6">
-        <v>0.64470000000000005</v>
+        <v>0.60950000000000004</v>
       </c>
       <c r="U6">
-        <v>0.65439999999999998</v>
+        <v>0.57720000000000005</v>
       </c>
       <c r="V6">
-        <v>0.61099999999999999</v>
+        <v>0.62960000000000005</v>
       </c>
       <c r="W6">
-        <v>0.60170000000000001</v>
+        <v>0.63149999999999995</v>
       </c>
       <c r="X6">
-        <v>0.58889999999999998</v>
+        <v>0.63460000000000005</v>
       </c>
       <c r="Y6">
-        <v>0.62</v>
+        <v>0.62309999999999999</v>
       </c>
       <c r="Z6">
-        <v>0.63949999999999996</v>
+        <v>0.60870000000000002</v>
       </c>
       <c r="AA6">
-        <v>0.6331</v>
+        <v>0.60940000000000005</v>
       </c>
       <c r="AB6">
-        <v>0.60519999999999996</v>
+        <v>0.65069999999999995</v>
       </c>
       <c r="AC6">
-        <v>0.64219999999999999</v>
+        <v>0.61990000000000001</v>
       </c>
       <c r="AD6">
-        <v>0.62034999999999996</v>
+        <v>0.55449999999999999</v>
       </c>
       <c r="AE6">
+        <v>0.5585</v>
+      </c>
+      <c r="AF6">
+        <v>0.58819999999999995</v>
+      </c>
+      <c r="AG6">
+        <v>0.52829999999999999</v>
+      </c>
+      <c r="AH6">
+        <v>0.63260000000000005</v>
+      </c>
+      <c r="AI6">
+        <v>0.62680000000000002</v>
+      </c>
+      <c r="AJ6">
+        <v>0.58909999999999996</v>
+      </c>
+      <c r="AK6">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="AL6">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="AM6">
+        <v>0.61909999999999998</v>
+      </c>
+      <c r="AN6">
         <v>0.61809999999999998</v>
       </c>
-      <c r="AF6">
-        <v>0.59350000000000003</v>
-      </c>
-      <c r="AG6">
-        <v>0.62780000000000002</v>
-      </c>
-      <c r="AH6">
-        <v>0.56469999999999998</v>
-      </c>
-      <c r="AI6">
-        <v>0.59650000000000003</v>
-      </c>
-      <c r="AJ6">
-        <v>0.64859999999999995</v>
-      </c>
-      <c r="AK6">
-        <v>0.56779999999999997</v>
-      </c>
-      <c r="AL6">
-        <v>0.60150000000000003</v>
-      </c>
-      <c r="AM6">
-        <v>0.59519999999999995</v>
-      </c>
-      <c r="AN6">
-        <v>0.60109999999999997</v>
-      </c>
       <c r="AO6">
-        <v>0.58499999999999996</v>
+        <v>0.61129999999999995</v>
       </c>
       <c r="AP6">
-        <v>0.6099</v>
+        <v>0.60029999999999994</v>
       </c>
       <c r="AQ6">
-        <v>0.64359999999999995</v>
+        <v>0.63839999999999997</v>
       </c>
       <c r="AR6">
-        <v>0.61450000000000005</v>
+        <v>0.56684999999999997</v>
       </c>
       <c r="AS6">
-        <v>0.6</v>
+        <v>0.57709999999999995</v>
       </c>
       <c r="AT6">
-        <v>0.63759999999999994</v>
+        <v>0.65410000000000001</v>
       </c>
       <c r="AU6">
-        <v>0.59330000000000005</v>
+        <v>0.5696</v>
       </c>
       <c r="AV6">
-        <v>0.6956</v>
+        <v>0.61990000000000001</v>
       </c>
       <c r="AW6">
-        <v>0.5675</v>
+        <v>0.63890000000000002</v>
       </c>
       <c r="AX6">
-        <v>0.58179999999999998</v>
+        <v>0.65810000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.32490000000000002</v>
+        <v>0.36020000000000002</v>
       </c>
       <c r="B7">
-        <v>0.3422</v>
+        <v>0.34370000000000001</v>
       </c>
       <c r="C7">
-        <v>0.32629999999999998</v>
+        <v>0.34229999999999999</v>
       </c>
       <c r="D7">
-        <v>0.31519999999999998</v>
+        <v>0.33389999999999997</v>
       </c>
       <c r="E7">
-        <v>0.3075</v>
+        <v>0.377</v>
       </c>
       <c r="F7">
-        <v>0.3291</v>
+        <v>0.29959999999999998</v>
       </c>
       <c r="G7">
-        <v>0.36180000000000001</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="H7">
-        <v>0.3357</v>
+        <v>0.29559999999999997</v>
       </c>
       <c r="I7">
-        <v>0.33929999999999999</v>
+        <v>0.3488</v>
       </c>
       <c r="J7">
-        <v>0.32340000000000002</v>
+        <v>0.3402</v>
       </c>
       <c r="K7">
+        <v>0.33090000000000003</v>
+      </c>
+      <c r="L7">
+        <v>0.33</v>
+      </c>
+      <c r="M7">
+        <v>0.3543</v>
+      </c>
+      <c r="N7">
+        <v>0.3175</v>
+      </c>
+      <c r="O7">
+        <v>0.31509999999999999</v>
+      </c>
+      <c r="P7">
+        <v>0.317</v>
+      </c>
+      <c r="Q7">
+        <v>0.31909999999999999</v>
+      </c>
+      <c r="R7">
+        <v>0.31969999999999998</v>
+      </c>
+      <c r="S7">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="T7">
+        <v>0.34029999999999999</v>
+      </c>
+      <c r="U7">
+        <v>0.29430000000000001</v>
+      </c>
+      <c r="V7">
+        <v>0.33510000000000001</v>
+      </c>
+      <c r="W7">
+        <v>0.29909999999999998</v>
+      </c>
+      <c r="X7">
+        <v>0.35610000000000003</v>
+      </c>
+      <c r="Y7">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="Z7">
         <v>0.32500000000000001</v>
       </c>
-      <c r="L7">
-        <v>0.32150000000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.3175</v>
-      </c>
-      <c r="N7">
-        <v>0.31059999999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.33629999999999999</v>
-      </c>
-      <c r="P7">
-        <v>0.3286</v>
-      </c>
-      <c r="Q7">
-        <v>0.32150000000000001</v>
-      </c>
-      <c r="R7">
-        <v>0.33239999999999997</v>
-      </c>
-      <c r="S7">
-        <v>0.31240000000000001</v>
-      </c>
-      <c r="T7">
-        <v>0.3306</v>
-      </c>
-      <c r="U7">
-        <v>0.28670000000000001</v>
-      </c>
-      <c r="V7">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="W7">
-        <v>0.35270000000000001</v>
-      </c>
-      <c r="X7">
-        <v>0.32740000000000002</v>
-      </c>
-      <c r="Y7">
-        <v>0.35680000000000001</v>
-      </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>0.3165</v>
       </c>
-      <c r="AA7">
-        <v>0.31580000000000003</v>
-      </c>
       <c r="AB7">
-        <v>0.31409999999999999</v>
+        <v>0.35020000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.34010000000000001</v>
+        <v>0.33110000000000001</v>
       </c>
       <c r="AD7">
-        <v>0.35680000000000001</v>
+        <v>0.38340000000000002</v>
       </c>
       <c r="AE7">
-        <v>0.32340000000000002</v>
+        <v>0.30380000000000001</v>
       </c>
       <c r="AF7">
-        <v>0.32040000000000002</v>
+        <v>0.36880000000000002</v>
       </c>
       <c r="AG7">
-        <v>0.32979999999999998</v>
+        <v>0.3266</v>
       </c>
       <c r="AH7">
-        <v>0.2893</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="AI7">
-        <v>0.31369999999999998</v>
+        <v>0.3256</v>
       </c>
       <c r="AJ7">
-        <v>0.32440000000000002</v>
+        <v>0.32019999999999998</v>
       </c>
       <c r="AK7">
+        <v>0.31709999999999999</v>
+      </c>
+      <c r="AL7">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="AM7">
+        <v>0.28860000000000002</v>
+      </c>
+      <c r="AN7">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="AO7">
+        <v>0.29759999999999998</v>
+      </c>
+      <c r="AP7">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="AQ7">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="AR7">
+        <v>0.33160000000000001</v>
+      </c>
+      <c r="AS7">
+        <v>0.32019999999999998</v>
+      </c>
+      <c r="AT7">
+        <v>0.35610000000000003</v>
+      </c>
+      <c r="AU7">
         <v>0.34079999999999999</v>
       </c>
-      <c r="AL7">
-        <v>0.31209999999999999</v>
-      </c>
-      <c r="AM7">
-        <v>0.32279999999999998</v>
-      </c>
-      <c r="AN7">
-        <v>0.33069999999999999</v>
-      </c>
-      <c r="AO7">
-        <v>0.34089999999999998</v>
-      </c>
-      <c r="AP7">
-        <v>0.33789999999999998</v>
-      </c>
-      <c r="AQ7">
-        <v>0.31580000000000003</v>
-      </c>
-      <c r="AR7">
-        <v>0.32900000000000001</v>
-      </c>
-      <c r="AS7">
-        <v>0.34329999999999999</v>
-      </c>
-      <c r="AT7">
-        <v>0.31140000000000001</v>
-      </c>
-      <c r="AU7">
-        <v>0.34250000000000003</v>
-      </c>
       <c r="AV7">
-        <v>0.29160000000000003</v>
+        <v>0.3125</v>
       </c>
       <c r="AW7">
-        <v>0.31430000000000002</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="AX7">
-        <v>0.30869999999999997</v>
+        <v>0.31330000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.3085</v>
+        <v>0.3513</v>
       </c>
       <c r="B8">
-        <v>0.35120000000000001</v>
+        <v>0.33779999999999999</v>
       </c>
       <c r="C8">
-        <v>0.30470000000000003</v>
+        <v>0.33739999999999998</v>
       </c>
       <c r="D8">
-        <v>0.30719999999999997</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="E8">
-        <v>0.32529999999999998</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="F8">
-        <v>0.34289999999999998</v>
+        <v>0.30080000000000001</v>
       </c>
       <c r="G8">
+        <v>0.33650000000000002</v>
+      </c>
+      <c r="H8">
+        <v>0.29959999999999998</v>
+      </c>
+      <c r="I8">
+        <v>0.33979999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.3427</v>
+      </c>
+      <c r="K8">
+        <v>0.32579999999999998</v>
+      </c>
+      <c r="L8">
+        <v>0.318</v>
+      </c>
+      <c r="M8">
+        <v>0.34789999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.30149999999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.30409999999999998</v>
+      </c>
+      <c r="P8">
+        <v>0.3216</v>
+      </c>
+      <c r="Q8">
+        <v>0.32169999999999999</v>
+      </c>
+      <c r="R8">
+        <v>0.31390000000000001</v>
+      </c>
+      <c r="S8">
+        <v>0.31340000000000001</v>
+      </c>
+      <c r="T8">
+        <v>0.3125</v>
+      </c>
+      <c r="U8">
+        <v>0.2989</v>
+      </c>
+      <c r="V8">
+        <v>0.32450000000000001</v>
+      </c>
+      <c r="W8">
+        <v>0.29570000000000002</v>
+      </c>
+      <c r="X8">
+        <v>0.3498</v>
+      </c>
+      <c r="Y8">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="Z8">
+        <v>0.31690000000000002</v>
+      </c>
+      <c r="AA8">
+        <v>0.32019999999999998</v>
+      </c>
+      <c r="AB8">
+        <v>0.3453</v>
+      </c>
+      <c r="AC8">
+        <v>0.3</v>
+      </c>
+      <c r="AD8">
+        <v>0.3775</v>
+      </c>
+      <c r="AE8">
+        <v>0.29759999999999998</v>
+      </c>
+      <c r="AF8">
         <v>0.35220000000000001</v>
       </c>
-      <c r="H8">
-        <v>0.33650000000000002</v>
-      </c>
-      <c r="I8">
-        <v>0.33929999999999999</v>
-      </c>
-      <c r="J8">
-        <v>0.3155</v>
-      </c>
-      <c r="K8">
-        <v>0.307</v>
-      </c>
-      <c r="L8">
-        <v>0.32219999999999999</v>
-      </c>
-      <c r="M8">
-        <v>0.31540000000000001</v>
-      </c>
-      <c r="N8">
-        <v>0.30980000000000002</v>
-      </c>
-      <c r="O8">
-        <v>0.30880000000000002</v>
-      </c>
-      <c r="P8">
-        <v>0.32250000000000001</v>
-      </c>
-      <c r="Q8">
-        <v>0.31130000000000002</v>
-      </c>
-      <c r="R8">
-        <v>0.31509999999999999</v>
-      </c>
-      <c r="S8">
-        <v>0.31490000000000001</v>
-      </c>
-      <c r="T8">
-        <v>0.32519999999999999</v>
-      </c>
-      <c r="U8">
-        <v>0.29549999999999998</v>
-      </c>
-      <c r="V8">
-        <v>0.30070000000000002</v>
-      </c>
-      <c r="W8">
-        <v>0.34960000000000002</v>
-      </c>
-      <c r="X8">
-        <v>0.33750000000000002</v>
-      </c>
-      <c r="Y8">
-        <v>0.3256</v>
-      </c>
-      <c r="Z8">
-        <v>0.32869999999999999</v>
-      </c>
-      <c r="AA8">
-        <v>0.32629999999999998</v>
-      </c>
-      <c r="AB8">
-        <v>0.30819999999999997</v>
-      </c>
-      <c r="AC8">
-        <v>0.30759999999999998</v>
-      </c>
-      <c r="AD8">
-        <v>0.3332</v>
-      </c>
-      <c r="AE8">
-        <v>0.32279999999999998</v>
-      </c>
-      <c r="AF8">
-        <v>0.3397</v>
-      </c>
       <c r="AG8">
-        <v>0.32519999999999999</v>
+        <v>0.33560000000000001</v>
       </c>
       <c r="AH8">
-        <v>0.30919999999999997</v>
+        <v>0.31390000000000001</v>
       </c>
       <c r="AI8">
-        <v>0.28739999999999999</v>
+        <v>0.30449999999999999</v>
       </c>
       <c r="AJ8">
-        <v>0.30730000000000002</v>
+        <v>0.34039999999999998</v>
       </c>
       <c r="AK8">
-        <v>0.31640000000000001</v>
+        <v>0.31890000000000002</v>
       </c>
       <c r="AL8">
-        <v>0.31619999999999998</v>
+        <v>0.32290000000000002</v>
       </c>
       <c r="AM8">
-        <v>0.33389999999999997</v>
+        <v>0.30680000000000002</v>
       </c>
       <c r="AN8">
-        <v>0.32579999999999998</v>
+        <v>0.32969999999999999</v>
       </c>
       <c r="AO8">
-        <v>0.34699999999999998</v>
+        <v>0.29320000000000002</v>
       </c>
       <c r="AP8">
-        <v>0.33189999999999997</v>
+        <v>0.32569999999999999</v>
       </c>
       <c r="AQ8">
-        <v>0.31119999999999998</v>
+        <v>0.30740000000000001</v>
       </c>
       <c r="AR8">
-        <v>0.3044</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="AS8">
-        <v>0.33750000000000002</v>
+        <v>0.32779999999999998</v>
       </c>
       <c r="AT8">
-        <v>0.29730000000000001</v>
+        <v>0.3276</v>
       </c>
       <c r="AU8">
-        <v>0.35260000000000002</v>
+        <v>0.3639</v>
       </c>
       <c r="AV8">
-        <v>0.2646</v>
+        <v>0.30869999999999997</v>
       </c>
       <c r="AW8">
-        <v>0.32950000000000002</v>
+        <v>0.31209999999999999</v>
       </c>
       <c r="AX8">
-        <v>0.31430000000000002</v>
+        <v>0.31359999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.313</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="B9">
-        <v>0.36849999999999999</v>
+        <v>0.35370000000000001</v>
       </c>
       <c r="C9">
-        <v>0.33160000000000001</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="D9">
-        <v>0.33729999999999999</v>
+        <v>0.33800000000000002</v>
       </c>
       <c r="E9">
-        <v>0.34370000000000001</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="F9">
-        <v>0.33989999999999998</v>
+        <v>0.3095</v>
       </c>
       <c r="G9">
-        <v>0.3679</v>
+        <v>0.33360000000000001</v>
       </c>
       <c r="H9">
-        <v>0.34910000000000002</v>
+        <v>0.31979999999999997</v>
       </c>
       <c r="I9">
-        <v>0.33310000000000001</v>
+        <v>0.3518</v>
       </c>
       <c r="J9">
-        <v>0.30690000000000001</v>
+        <v>0.34520000000000001</v>
       </c>
       <c r="K9">
-        <v>0.32640000000000002</v>
+        <v>0.35759999999999997</v>
       </c>
       <c r="L9">
-        <v>0.32850000000000001</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="M9">
-        <v>0.32800000000000001</v>
+        <v>0.34389999999999998</v>
       </c>
       <c r="N9">
-        <v>0.30530000000000002</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="O9">
-        <v>0.33400000000000002</v>
+        <v>0.29970000000000002</v>
       </c>
       <c r="P9">
-        <v>0.3402</v>
+        <v>0.30280000000000001</v>
       </c>
       <c r="Q9">
-        <v>0.31879999999999997</v>
+        <v>0.33550000000000002</v>
       </c>
       <c r="R9">
-        <v>0.32529999999999998</v>
+        <v>0.31530000000000002</v>
       </c>
       <c r="S9">
-        <v>0.33300000000000002</v>
+        <v>0.34589999999999999</v>
       </c>
       <c r="T9">
-        <v>0.33410000000000001</v>
+        <v>0.32140000000000002</v>
       </c>
       <c r="U9">
-        <v>0.29870000000000002</v>
+        <v>0.32829999999999998</v>
       </c>
       <c r="V9">
-        <v>0.32650000000000001</v>
+        <v>0.33489999999999998</v>
       </c>
       <c r="W9">
-        <v>0.36959999999999998</v>
+        <v>0.2888</v>
       </c>
       <c r="X9">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="Y9">
         <v>0.3538</v>
       </c>
-      <c r="Y9">
-        <v>0.33829999999999999</v>
-      </c>
       <c r="Z9">
-        <v>0.30990000000000001</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="AA9">
-        <v>0.31790000000000002</v>
+        <v>0.31890000000000002</v>
       </c>
       <c r="AB9">
-        <v>0.2949</v>
+        <v>0.34889999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.30599999999999999</v>
+        <v>0.31030000000000002</v>
       </c>
       <c r="AD9">
-        <v>0.32579999999999998</v>
+        <v>0.38829999999999998</v>
       </c>
       <c r="AE9">
-        <v>0.32140000000000002</v>
+        <v>0.3105</v>
       </c>
       <c r="AF9">
-        <v>0.32390000000000002</v>
+        <v>0.35320000000000001</v>
       </c>
       <c r="AG9">
-        <v>0.31219999999999998</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="AH9">
-        <v>0.31709999999999999</v>
+        <v>0.3196</v>
       </c>
       <c r="AI9">
-        <v>0.29580000000000001</v>
+        <v>0.3296</v>
       </c>
       <c r="AJ9">
-        <v>0.32350000000000001</v>
+        <v>0.35049999999999998</v>
       </c>
       <c r="AK9">
-        <v>0.3296</v>
+        <v>0.33779999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.32990000000000003</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="AM9">
-        <v>0.3206</v>
+        <v>0.31519999999999998</v>
       </c>
       <c r="AN9">
-        <v>0.31140000000000001</v>
+        <v>0.3271</v>
       </c>
       <c r="AO9">
-        <v>0.35070000000000001</v>
+        <v>0.32279999999999998</v>
       </c>
       <c r="AP9">
-        <v>0.33189999999999997</v>
+        <v>0.32069999999999999</v>
       </c>
       <c r="AQ9">
-        <v>0.32040000000000002</v>
+        <v>0.31359999999999999</v>
       </c>
       <c r="AR9">
-        <v>0.32069999999999999</v>
+        <v>0.34449999999999997</v>
       </c>
       <c r="AS9">
-        <v>0.35620000000000002</v>
+        <v>0.33510000000000001</v>
       </c>
       <c r="AT9">
-        <v>0.30120000000000002</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="AU9">
-        <v>0.35070000000000001</v>
+        <v>0.40229999999999999</v>
       </c>
       <c r="AV9">
-        <v>0.28670000000000001</v>
+        <v>0.315</v>
       </c>
       <c r="AW9">
-        <v>0.3412</v>
+        <v>0.33029999999999998</v>
       </c>
       <c r="AX9">
-        <v>0.34229999999999999</v>
+        <v>0.33460000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.30680000000000002</v>
+        <v>0.35649999999999998</v>
       </c>
       <c r="B10">
-        <v>0.36630000000000001</v>
+        <v>0.35410000000000003</v>
       </c>
       <c r="C10">
-        <v>0.33679999999999999</v>
+        <v>0.35460000000000003</v>
       </c>
       <c r="D10">
-        <v>0.34620000000000001</v>
+        <v>0.35510000000000003</v>
       </c>
       <c r="E10">
-        <v>0.35830000000000001</v>
+        <v>0.38219999999999998</v>
       </c>
       <c r="F10">
-        <v>0.3448</v>
+        <v>0.30909999999999999</v>
       </c>
       <c r="G10">
-        <v>0.37459999999999999</v>
+        <v>0.33979999999999999</v>
       </c>
       <c r="H10">
-        <v>0.34810000000000002</v>
+        <v>0.33169999999999999</v>
       </c>
       <c r="I10">
-        <v>0.32479999999999998</v>
+        <v>0.37359999999999999</v>
       </c>
       <c r="J10">
-        <v>0.3266</v>
+        <v>0.34670000000000001</v>
       </c>
       <c r="K10">
-        <v>0.33850000000000002</v>
+        <v>0.371</v>
       </c>
       <c r="L10">
-        <v>0.33210000000000001</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="M10">
-        <v>0.3579</v>
+        <v>0.35489999999999999</v>
       </c>
       <c r="N10">
-        <v>0.3135</v>
+        <v>0.31790000000000002</v>
       </c>
       <c r="O10">
-        <v>0.34100000000000003</v>
+        <v>0.30509999999999998</v>
       </c>
       <c r="P10">
-        <v>0.33029999999999998</v>
+        <v>0.31480000000000002</v>
       </c>
       <c r="Q10">
-        <v>0.33750000000000002</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="R10">
-        <v>0.35220000000000001</v>
+        <v>0.31780000000000003</v>
       </c>
       <c r="S10">
-        <v>0.33789999999999998</v>
+        <v>0.35360000000000003</v>
       </c>
       <c r="T10">
-        <v>0.32629999999999998</v>
+        <v>0.3422</v>
       </c>
       <c r="U10">
-        <v>0.3</v>
+        <v>0.32469999999999999</v>
       </c>
       <c r="V10">
-        <v>0.34010000000000001</v>
+        <v>0.35410000000000003</v>
       </c>
       <c r="W10">
-        <v>0.36969999999999997</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="X10">
-        <v>0.37340000000000001</v>
+        <v>0.37740000000000001</v>
       </c>
       <c r="Y10">
-        <v>0.34589999999999999</v>
+        <v>0.37980000000000003</v>
       </c>
       <c r="Z10">
-        <v>0.32319999999999999</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="AA10">
-        <v>0.33629999999999999</v>
+        <v>0.3301</v>
       </c>
       <c r="AB10">
-        <v>0.3291</v>
+        <v>0.35120000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.30570000000000003</v>
+        <v>0.34189999999999998</v>
       </c>
       <c r="AD10">
-        <v>0.3468</v>
+        <v>0.40300000000000002</v>
       </c>
       <c r="AE10">
-        <v>0.32600000000000001</v>
+        <v>0.32529999999999998</v>
       </c>
       <c r="AF10">
-        <v>0.31940000000000002</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="AG10">
-        <v>0.32569999999999999</v>
+        <v>0.34870000000000001</v>
       </c>
       <c r="AH10">
-        <v>0.32429999999999998</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="AI10">
-        <v>0.309</v>
+        <v>0.31719999999999998</v>
       </c>
       <c r="AJ10">
-        <v>0.34250000000000003</v>
+        <v>0.3538</v>
       </c>
       <c r="AK10">
-        <v>0.35039999999999999</v>
+        <v>0.31190000000000001</v>
       </c>
       <c r="AL10">
-        <v>0.34300000000000003</v>
+        <v>0.35870000000000002</v>
       </c>
       <c r="AM10">
-        <v>0.3427</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="AN10">
-        <v>0.3387</v>
+        <v>0.34279999999999999</v>
       </c>
       <c r="AO10">
-        <v>0.36149999999999999</v>
+        <v>0.33339999999999997</v>
       </c>
       <c r="AP10">
-        <v>0.34110000000000001</v>
+        <v>0.31540000000000001</v>
       </c>
       <c r="AQ10">
-        <v>0.3211</v>
+        <v>0.31630000000000003</v>
       </c>
       <c r="AR10">
-        <v>0.34350000000000003</v>
+        <v>0.34849999999999998</v>
       </c>
       <c r="AS10">
-        <v>0.34889999999999999</v>
+        <v>0.33889999999999998</v>
       </c>
       <c r="AT10">
-        <v>0.31709999999999999</v>
+        <v>0.3352</v>
       </c>
       <c r="AU10">
-        <v>0.35699999999999998</v>
+        <v>0.41</v>
       </c>
       <c r="AV10">
-        <v>0.28899999999999998</v>
+        <v>0.3221</v>
       </c>
       <c r="AW10">
-        <v>0.37319999999999998</v>
+        <v>0.34160000000000001</v>
       </c>
       <c r="AX10">
-        <v>0.33150000000000002</v>
+        <v>0.31359999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.32790000000000002</v>
+        <v>0.37480000000000002</v>
       </c>
       <c r="B11">
-        <v>0.37219999999999998</v>
+        <v>0.37419999999999998</v>
       </c>
       <c r="C11">
-        <v>0.36120000000000002</v>
+        <v>0.38030000000000003</v>
       </c>
       <c r="D11">
-        <v>0.35060000000000002</v>
+        <v>0.35580000000000001</v>
       </c>
       <c r="E11">
+        <v>0.39579999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.32040000000000002</v>
+      </c>
+      <c r="G11">
         <v>0.3453</v>
       </c>
-      <c r="F11">
-        <v>0.37619999999999998</v>
-      </c>
-      <c r="G11">
-        <v>0.37719999999999998</v>
-      </c>
       <c r="H11">
-        <v>0.35720000000000002</v>
+        <v>0.33210000000000001</v>
       </c>
       <c r="I11">
-        <v>0.33989999999999998</v>
+        <v>0.36820000000000003</v>
       </c>
       <c r="J11">
-        <v>0.33989999999999998</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="K11">
-        <v>0.34470000000000001</v>
+        <v>0.38879999999999998</v>
       </c>
       <c r="L11">
-        <v>0.35410000000000003</v>
+        <v>0.3695</v>
       </c>
       <c r="M11">
-        <v>0.35210000000000002</v>
+        <v>0.36530000000000001</v>
       </c>
       <c r="N11">
-        <v>0.31850000000000001</v>
+        <v>0.31059999999999999</v>
       </c>
       <c r="O11">
-        <v>0.3402</v>
+        <v>0.31440000000000001</v>
       </c>
       <c r="P11">
-        <v>0.35060000000000002</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="Q11">
+        <v>0.36070000000000002</v>
+      </c>
+      <c r="R11">
+        <v>0.30280000000000001</v>
+      </c>
+      <c r="S11">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="T11">
+        <v>0.35439999999999999</v>
+      </c>
+      <c r="U11">
+        <v>0.34210000000000002</v>
+      </c>
+      <c r="V11">
+        <v>0.37459999999999999</v>
+      </c>
+      <c r="W11">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="X11">
+        <v>0.39090000000000003</v>
+      </c>
+      <c r="Y11">
+        <v>0.3735</v>
+      </c>
+      <c r="Z11">
         <v>0.34100000000000003</v>
       </c>
-      <c r="R11">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="S11">
-        <v>0.34329999999999999</v>
-      </c>
-      <c r="T11">
-        <v>0.36599999999999999</v>
-      </c>
-      <c r="U11">
-        <v>0.3054</v>
-      </c>
-      <c r="V11">
-        <v>0.34960000000000002</v>
-      </c>
-      <c r="W11">
-        <v>0.3836</v>
-      </c>
-      <c r="X11">
-        <v>0.3846</v>
-      </c>
-      <c r="Y11">
-        <v>0.34720000000000001</v>
-      </c>
-      <c r="Z11">
-        <v>0.34329999999999999</v>
-      </c>
       <c r="AA11">
-        <v>0.3473</v>
+        <v>0.33429999999999999</v>
       </c>
       <c r="AB11">
-        <v>0.32600000000000001</v>
+        <v>0.36890000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.31430000000000002</v>
+        <v>0.34849999999999998</v>
       </c>
       <c r="AD11">
-        <v>0.35539999999999999</v>
+        <v>0.41460000000000002</v>
       </c>
       <c r="AE11">
-        <v>0.33360000000000001</v>
+        <v>0.33329999999999999</v>
       </c>
       <c r="AF11">
-        <v>0.32079999999999997</v>
+        <v>0.3604</v>
       </c>
       <c r="AG11">
-        <v>0.32950000000000002</v>
+        <v>0.3614</v>
       </c>
       <c r="AH11">
-        <v>0.33510000000000001</v>
+        <v>0.33639999999999998</v>
       </c>
       <c r="AI11">
-        <v>0.31890000000000002</v>
+        <v>0.32729999999999998</v>
       </c>
       <c r="AJ11">
-        <v>0.33829999999999999</v>
+        <v>0.37090000000000001</v>
       </c>
       <c r="AK11">
-        <v>0.3458</v>
+        <v>0.317</v>
       </c>
       <c r="AL11">
-        <v>0.36699999999999999</v>
+        <v>0.3785</v>
       </c>
       <c r="AM11">
-        <v>0.35680000000000001</v>
+        <v>0.33950000000000002</v>
       </c>
       <c r="AN11">
-        <v>0.35649999999999998</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="AO11">
-        <v>0.36149999999999999</v>
+        <v>0.35560000000000003</v>
       </c>
       <c r="AP11">
-        <v>0.37119999999999997</v>
+        <v>0.35149999999999998</v>
       </c>
       <c r="AQ11">
-        <v>0.3342</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="AR11">
-        <v>0.35620000000000002</v>
+        <v>0.33439999999999998</v>
       </c>
       <c r="AS11">
-        <v>0.35620000000000002</v>
+        <v>0.34449999999999997</v>
       </c>
       <c r="AT11">
-        <v>0.31359999999999999</v>
+        <v>0.35389999999999999</v>
       </c>
       <c r="AU11">
-        <v>0.3629</v>
+        <v>0.42559999999999998</v>
       </c>
       <c r="AV11">
-        <v>0.28920000000000001</v>
+        <v>0.32879999999999998</v>
       </c>
       <c r="AW11">
-        <v>0.38169999999999998</v>
+        <v>0.34889999999999999</v>
       </c>
       <c r="AX11">
-        <v>0.31690000000000002</v>
+        <v>0.33339999999999997</v>
       </c>
     </row>
   </sheetData>
